--- a/excel/excel/Global.xlsx
+++ b/excel/excel/Global.xlsx
@@ -1020,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="3" width="10.625" customWidth="1"/>
@@ -1080,11 +1080,17 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel/Global.xlsx
+++ b/excel/excel/Global.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Global" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Global!$A$4:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Global!$A$4:$B$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
     <t>c/s</t>
   </si>
   <si>
-    <t>{{reward_type = 3,item_type = 2,item_count = 1},{reward_type = 4,item_type = 1,item_count = 1000}}</t>
+    <t>{{reward_type = 3,item_type = 1001,item_count = 1},{reward_type = 4,item_type = 1,item_count = 1000}}</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:B5" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A4:B6" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
